--- a/natmiOut/YoungD2/LR-pairs_lrc2p/F2-F2r.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/F2-F2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H2">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I2">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J2">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.92087319581495</v>
+        <v>8.303830666666668</v>
       </c>
       <c r="N2">
-        <v>4.92087319581495</v>
+        <v>24.911492</v>
       </c>
       <c r="O2">
-        <v>0.09252683024663116</v>
+        <v>0.138790009019306</v>
       </c>
       <c r="P2">
-        <v>0.09252683024663116</v>
+        <v>0.138790009019306</v>
       </c>
       <c r="Q2">
-        <v>1.488433096992516</v>
+        <v>3.433736394578223</v>
       </c>
       <c r="R2">
-        <v>1.488433096992516</v>
+        <v>30.903627551204</v>
       </c>
       <c r="S2">
-        <v>0.01793538582019649</v>
+        <v>0.02943883435805373</v>
       </c>
       <c r="T2">
-        <v>0.01793538582019649</v>
+        <v>0.02943883435805374</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H3">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I3">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J3">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.0082873759151</v>
+        <v>31.21332166666666</v>
       </c>
       <c r="N3">
-        <v>31.0082873759151</v>
+        <v>93.63996499999999</v>
       </c>
       <c r="O3">
-        <v>0.5830466317868405</v>
+        <v>0.521698643618676</v>
       </c>
       <c r="P3">
-        <v>0.5830466317868405</v>
+        <v>0.521698643618676</v>
       </c>
       <c r="Q3">
-        <v>9.379181168622592</v>
+        <v>12.90709347346722</v>
       </c>
       <c r="R3">
-        <v>9.379181168622592</v>
+        <v>116.163841261205</v>
       </c>
       <c r="S3">
-        <v>0.1130176648696312</v>
+        <v>0.1106578208534819</v>
       </c>
       <c r="T3">
-        <v>0.1130176648696312</v>
+        <v>0.1106578208534819</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H4">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I4">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J4">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>17.2540424267766</v>
+        <v>0.124766</v>
       </c>
       <c r="N4">
-        <v>17.2540424267766</v>
+        <v>0.374298</v>
       </c>
       <c r="O4">
-        <v>0.3244265379665283</v>
+        <v>0.00208533566740636</v>
       </c>
       <c r="P4">
-        <v>0.3244265379665283</v>
+        <v>0.00208533566740636</v>
       </c>
       <c r="Q4">
-        <v>5.21888835232915</v>
+        <v>0.05159227978066667</v>
       </c>
       <c r="R4">
-        <v>5.21888835232915</v>
+        <v>0.464330518026</v>
       </c>
       <c r="S4">
-        <v>0.06288678768342618</v>
+        <v>0.0004423218337364456</v>
       </c>
       <c r="T4">
-        <v>0.06288678768342618</v>
+        <v>0.0004423218337364456</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.588235452090426</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H5">
-        <v>0.588235452090426</v>
+        <v>1.240537</v>
       </c>
       <c r="I5">
-        <v>0.3769702605663502</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J5">
-        <v>0.3769702605663502</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.92087319581495</v>
+        <v>20.18825766666667</v>
       </c>
       <c r="N5">
-        <v>4.92087319581495</v>
+        <v>60.564773</v>
       </c>
       <c r="O5">
-        <v>0.09252683024663116</v>
+        <v>0.3374260116946116</v>
       </c>
       <c r="P5">
-        <v>0.09252683024663116</v>
+        <v>0.3374260116946116</v>
       </c>
       <c r="Q5">
-        <v>2.894632069019867</v>
+        <v>8.34809353367789</v>
       </c>
       <c r="R5">
-        <v>2.894632069019867</v>
+        <v>75.132841803101</v>
       </c>
       <c r="S5">
-        <v>0.03487986330745101</v>
+        <v>0.07157163931731288</v>
       </c>
       <c r="T5">
-        <v>0.03487986330745101</v>
+        <v>0.07157163931731286</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H6">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I6">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J6">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.0082873759151</v>
+        <v>8.303830666666668</v>
       </c>
       <c r="N6">
-        <v>31.0082873759151</v>
+        <v>24.911492</v>
       </c>
       <c r="O6">
-        <v>0.5830466317868405</v>
+        <v>0.138790009019306</v>
       </c>
       <c r="P6">
-        <v>0.5830466317868405</v>
+        <v>0.138790009019306</v>
       </c>
       <c r="Q6">
-        <v>18.24017394312127</v>
+        <v>5.013623217218223</v>
       </c>
       <c r="R6">
-        <v>18.24017394312127</v>
+        <v>45.12260895496401</v>
       </c>
       <c r="S6">
-        <v>0.2197912407070181</v>
+        <v>0.04298385387370696</v>
       </c>
       <c r="T6">
-        <v>0.2197912407070181</v>
+        <v>0.04298385387370697</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H7">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I7">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J7">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.2540424267766</v>
+        <v>31.21332166666666</v>
       </c>
       <c r="N7">
-        <v>17.2540424267766</v>
+        <v>93.63996499999999</v>
       </c>
       <c r="O7">
-        <v>0.3244265379665283</v>
+        <v>0.521698643618676</v>
       </c>
       <c r="P7">
-        <v>0.3244265379665283</v>
+        <v>0.521698643618676</v>
       </c>
       <c r="Q7">
-        <v>10.14943944730232</v>
+        <v>18.84574005376722</v>
       </c>
       <c r="R7">
-        <v>10.14943944730232</v>
+        <v>169.611660483905</v>
       </c>
       <c r="S7">
-        <v>0.1222991565518811</v>
+        <v>0.1615722804679476</v>
       </c>
       <c r="T7">
-        <v>0.1222991565518811</v>
+        <v>0.1615722804679476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.277272456976033</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H8">
-        <v>0.277272456976033</v>
+        <v>1.811317</v>
       </c>
       <c r="I8">
-        <v>0.1776898518827449</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J8">
-        <v>0.1776898518827449</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>4.92087319581495</v>
+        <v>0.124766</v>
       </c>
       <c r="N8">
-        <v>4.92087319581495</v>
+        <v>0.374298</v>
       </c>
       <c r="O8">
-        <v>0.09252683024663116</v>
+        <v>0.00208533566740636</v>
       </c>
       <c r="P8">
-        <v>0.09252683024663116</v>
+        <v>0.00208533566740636</v>
       </c>
       <c r="Q8">
-        <v>1.364422601471115</v>
+        <v>0.07533025894066667</v>
       </c>
       <c r="R8">
-        <v>1.364422601471115</v>
+        <v>0.677972330466</v>
       </c>
       <c r="S8">
-        <v>0.01644107876170377</v>
+        <v>0.0006458372921710496</v>
       </c>
       <c r="T8">
-        <v>0.01644107876170377</v>
+        <v>0.0006458372921710497</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.277272456976033</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H9">
-        <v>0.277272456976033</v>
+        <v>1.811317</v>
       </c>
       <c r="I9">
-        <v>0.1776898518827449</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J9">
-        <v>0.1776898518827449</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.0082873759151</v>
+        <v>20.18825766666667</v>
       </c>
       <c r="N9">
-        <v>31.0082873759151</v>
+        <v>60.564773</v>
       </c>
       <c r="O9">
-        <v>0.5830466317868405</v>
+        <v>0.3374260116946116</v>
       </c>
       <c r="P9">
-        <v>0.5830466317868405</v>
+        <v>0.3374260116946116</v>
       </c>
       <c r="Q9">
-        <v>8.597744027338885</v>
+        <v>12.18911143733789</v>
       </c>
       <c r="R9">
-        <v>8.597744027338885</v>
+        <v>109.702002936041</v>
       </c>
       <c r="S9">
-        <v>0.103601469642937</v>
+        <v>0.1045022655618633</v>
       </c>
       <c r="T9">
-        <v>0.103601469642937</v>
+        <v>0.1045022655618633</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,247 +1024,991 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.277272456976033</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H10">
-        <v>0.277272456976033</v>
+        <v>0.903572</v>
       </c>
       <c r="I10">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J10">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.2540424267766</v>
+        <v>8.303830666666668</v>
       </c>
       <c r="N10">
-        <v>17.2540424267766</v>
+        <v>24.911492</v>
       </c>
       <c r="O10">
-        <v>0.3244265379665283</v>
+        <v>0.138790009019306</v>
       </c>
       <c r="P10">
-        <v>0.3244265379665283</v>
+        <v>0.138790009019306</v>
       </c>
       <c r="Q10">
-        <v>4.784070736441063</v>
+        <v>2.501036294380445</v>
       </c>
       <c r="R10">
-        <v>4.784070736441063</v>
+        <v>22.509326649424</v>
       </c>
       <c r="S10">
-        <v>0.05764730347810413</v>
+        <v>0.02144241279266586</v>
       </c>
       <c r="T10">
-        <v>0.05764730347810413</v>
+        <v>0.02144241279266586</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.392448053877027</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H11">
-        <v>0.392448053877027</v>
+        <v>0.903572</v>
       </c>
       <c r="I11">
-        <v>0.251500049177651</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J11">
-        <v>0.251500049177651</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.92087319581495</v>
+        <v>31.21332166666666</v>
       </c>
       <c r="N11">
-        <v>4.92087319581495</v>
+        <v>93.63996499999999</v>
       </c>
       <c r="O11">
-        <v>0.09252683024663116</v>
+        <v>0.521698643618676</v>
       </c>
       <c r="P11">
-        <v>0.09252683024663116</v>
+        <v>0.521698643618676</v>
       </c>
       <c r="Q11">
-        <v>1.931187109073204</v>
+        <v>9.401161161664444</v>
       </c>
       <c r="R11">
-        <v>1.931187109073204</v>
+        <v>84.61045045498</v>
       </c>
       <c r="S11">
-        <v>0.02327050235727991</v>
+        <v>0.0806000212038999</v>
       </c>
       <c r="T11">
-        <v>0.02327050235727991</v>
+        <v>0.08060002120389992</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.392448053877027</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H12">
-        <v>0.392448053877027</v>
+        <v>0.903572</v>
       </c>
       <c r="I12">
-        <v>0.251500049177651</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J12">
-        <v>0.251500049177651</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>31.0082873759151</v>
+        <v>0.124766</v>
       </c>
       <c r="N12">
-        <v>31.0082873759151</v>
+        <v>0.374298</v>
       </c>
       <c r="O12">
-        <v>0.5830466317868405</v>
+        <v>0.00208533566740636</v>
       </c>
       <c r="P12">
-        <v>0.5830466317868405</v>
+        <v>0.00208533566740636</v>
       </c>
       <c r="Q12">
-        <v>12.16914203473747</v>
+        <v>0.03757835471733333</v>
       </c>
       <c r="R12">
-        <v>12.16914203473747</v>
+        <v>0.3382051924560001</v>
       </c>
       <c r="S12">
-        <v>0.1466362565672542</v>
+        <v>0.0003221746904388242</v>
       </c>
       <c r="T12">
-        <v>0.1466362565672542</v>
+        <v>0.0003221746904388242</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3011906666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.903572</v>
+      </c>
+      <c r="I13">
+        <v>0.1544953627727134</v>
+      </c>
+      <c r="J13">
+        <v>0.1544953627727135</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>20.18825766666667</v>
+      </c>
+      <c r="N13">
+        <v>60.564773</v>
+      </c>
+      <c r="O13">
+        <v>0.3374260116946116</v>
+      </c>
+      <c r="P13">
+        <v>0.3374260116946116</v>
+      </c>
+      <c r="Q13">
+        <v>6.080514785461778</v>
+      </c>
+      <c r="R13">
+        <v>54.72463306915601</v>
+      </c>
+      <c r="S13">
+        <v>0.05213075408570887</v>
+      </c>
+      <c r="T13">
+        <v>0.05213075408570887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1320703333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.396211</v>
+      </c>
+      <c r="I14">
+        <v>0.06774530660483012</v>
+      </c>
+      <c r="J14">
+        <v>0.06774530660483014</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.303830666666668</v>
+      </c>
+      <c r="N14">
+        <v>24.911492</v>
+      </c>
+      <c r="O14">
+        <v>0.138790009019306</v>
+      </c>
+      <c r="P14">
+        <v>0.138790009019306</v>
+      </c>
+      <c r="Q14">
+        <v>1.096689684090222</v>
+      </c>
+      <c r="R14">
+        <v>9.870207156812</v>
+      </c>
+      <c r="S14">
+        <v>0.009402371714700026</v>
+      </c>
+      <c r="T14">
+        <v>0.009402371714700028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1320703333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.396211</v>
+      </c>
+      <c r="I15">
+        <v>0.06774530660483012</v>
+      </c>
+      <c r="J15">
+        <v>0.06774530660483014</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>31.21332166666666</v>
+      </c>
+      <c r="N15">
+        <v>93.63996499999999</v>
+      </c>
+      <c r="O15">
+        <v>0.521698643618676</v>
+      </c>
+      <c r="P15">
+        <v>0.521698643618676</v>
+      </c>
+      <c r="Q15">
+        <v>4.122353796957221</v>
+      </c>
+      <c r="R15">
+        <v>37.10118417261499</v>
+      </c>
+      <c r="S15">
+        <v>0.03534263456727121</v>
+      </c>
+      <c r="T15">
+        <v>0.03534263456727121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1320703333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.396211</v>
+      </c>
+      <c r="I16">
+        <v>0.06774530660483012</v>
+      </c>
+      <c r="J16">
+        <v>0.06774530660483014</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.124766</v>
+      </c>
+      <c r="N16">
+        <v>0.374298</v>
+      </c>
+      <c r="O16">
+        <v>0.00208533566740636</v>
+      </c>
+      <c r="P16">
+        <v>0.00208533566740636</v>
+      </c>
+      <c r="Q16">
+        <v>0.01647788720866666</v>
+      </c>
+      <c r="R16">
+        <v>0.148300984878</v>
+      </c>
+      <c r="S16">
+        <v>0.0001412717041624319</v>
+      </c>
+      <c r="T16">
+        <v>0.000141271704162432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1320703333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.396211</v>
+      </c>
+      <c r="I17">
+        <v>0.06774530660483012</v>
+      </c>
+      <c r="J17">
+        <v>0.06774530660483014</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>20.18825766666667</v>
+      </c>
+      <c r="N17">
+        <v>60.564773</v>
+      </c>
+      <c r="O17">
+        <v>0.3374260116946116</v>
+      </c>
+      <c r="P17">
+        <v>0.3374260116946116</v>
+      </c>
+      <c r="Q17">
+        <v>2.666269919455889</v>
+      </c>
+      <c r="R17">
+        <v>23.996429275103</v>
+      </c>
+      <c r="S17">
+        <v>0.02285902861869646</v>
+      </c>
+      <c r="T17">
+        <v>0.02285902861869646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.223082</v>
+      </c>
+      <c r="I18">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J18">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.303830666666668</v>
+      </c>
+      <c r="N18">
+        <v>24.911492</v>
+      </c>
+      <c r="O18">
+        <v>0.138790009019306</v>
+      </c>
+      <c r="P18">
+        <v>0.138790009019306</v>
+      </c>
+      <c r="Q18">
+        <v>0.6174783842604445</v>
+      </c>
+      <c r="R18">
+        <v>5.557305458344</v>
+      </c>
+      <c r="S18">
+        <v>0.005293896148412617</v>
+      </c>
+      <c r="T18">
+        <v>0.005293896148412617</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.223082</v>
+      </c>
+      <c r="I19">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J19">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>31.21332166666666</v>
+      </c>
+      <c r="N19">
+        <v>93.63996499999999</v>
+      </c>
+      <c r="O19">
+        <v>0.521698643618676</v>
+      </c>
+      <c r="P19">
+        <v>0.521698643618676</v>
+      </c>
+      <c r="Q19">
+        <v>2.321043408014444</v>
+      </c>
+      <c r="R19">
+        <v>20.88939067213</v>
+      </c>
+      <c r="S19">
+        <v>0.01989925974931538</v>
+      </c>
+      <c r="T19">
+        <v>0.01989925974931538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.223082</v>
+      </c>
+      <c r="I20">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J20">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.124766</v>
+      </c>
+      <c r="N20">
+        <v>0.374298</v>
+      </c>
+      <c r="O20">
+        <v>0.00208533566740636</v>
+      </c>
+      <c r="P20">
+        <v>0.00208533566740636</v>
+      </c>
+      <c r="Q20">
+        <v>0.009277682937333335</v>
+      </c>
+      <c r="R20">
+        <v>0.08349914643600001</v>
+      </c>
+      <c r="S20">
+        <v>7.954139160185771E-05</v>
+      </c>
+      <c r="T20">
+        <v>7.954139160185771E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.223082</v>
+      </c>
+      <c r="I21">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J21">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>20.18825766666667</v>
+      </c>
+      <c r="N21">
+        <v>60.564773</v>
+      </c>
+      <c r="O21">
+        <v>0.3374260116946116</v>
+      </c>
+      <c r="P21">
+        <v>0.3374260116946116</v>
+      </c>
+      <c r="Q21">
+        <v>1.501212298931778</v>
+      </c>
+      <c r="R21">
+        <v>13.510910690386</v>
+      </c>
+      <c r="S21">
+        <v>0.01287051046618101</v>
+      </c>
+      <c r="T21">
+        <v>0.01287051046618101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H22">
+        <v>1.273819</v>
+      </c>
+      <c r="I22">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J22">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.303830666666668</v>
+      </c>
+      <c r="N22">
+        <v>24.911492</v>
+      </c>
+      <c r="O22">
+        <v>0.138790009019306</v>
+      </c>
+      <c r="P22">
+        <v>0.138790009019306</v>
+      </c>
+      <c r="Q22">
+        <v>3.525859091994223</v>
+      </c>
+      <c r="R22">
+        <v>31.732731827948</v>
+      </c>
+      <c r="S22">
+        <v>0.03022864013176685</v>
+      </c>
+      <c r="T22">
+        <v>0.03022864013176685</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H23">
+        <v>1.273819</v>
+      </c>
+      <c r="I23">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J23">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>31.21332166666666</v>
+      </c>
+      <c r="N23">
+        <v>93.63996499999999</v>
+      </c>
+      <c r="O23">
+        <v>0.521698643618676</v>
+      </c>
+      <c r="P23">
+        <v>0.521698643618676</v>
+      </c>
+      <c r="Q23">
+        <v>13.25337406403722</v>
+      </c>
+      <c r="R23">
+        <v>119.280366576335</v>
+      </c>
+      <c r="S23">
+        <v>0.11362662677676</v>
+      </c>
+      <c r="T23">
+        <v>0.11362662677676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.392448053877027</v>
-      </c>
-      <c r="H13">
-        <v>0.392448053877027</v>
-      </c>
-      <c r="I13">
-        <v>0.251500049177651</v>
-      </c>
-      <c r="J13">
-        <v>0.251500049177651</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>17.2540424267766</v>
-      </c>
-      <c r="N13">
-        <v>17.2540424267766</v>
-      </c>
-      <c r="O13">
-        <v>0.3244265379665283</v>
-      </c>
-      <c r="P13">
-        <v>0.3244265379665283</v>
-      </c>
-      <c r="Q13">
-        <v>6.771315371900133</v>
-      </c>
-      <c r="R13">
-        <v>6.771315371900133</v>
-      </c>
-      <c r="S13">
-        <v>0.08159329025311693</v>
-      </c>
-      <c r="T13">
-        <v>0.08159329025311693</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H24">
+        <v>1.273819</v>
+      </c>
+      <c r="I24">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J24">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.124766</v>
+      </c>
+      <c r="N24">
+        <v>0.374298</v>
+      </c>
+      <c r="O24">
+        <v>0.00208533566740636</v>
+      </c>
+      <c r="P24">
+        <v>0.00208533566740636</v>
+      </c>
+      <c r="Q24">
+        <v>0.05297643378466667</v>
+      </c>
+      <c r="R24">
+        <v>0.4767879040620001</v>
+      </c>
+      <c r="S24">
+        <v>0.0004541887552957514</v>
+      </c>
+      <c r="T24">
+        <v>0.0004541887552957514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H25">
+        <v>1.273819</v>
+      </c>
+      <c r="I25">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J25">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>20.18825766666667</v>
+      </c>
+      <c r="N25">
+        <v>60.564773</v>
+      </c>
+      <c r="O25">
+        <v>0.3374260116946116</v>
+      </c>
+      <c r="P25">
+        <v>0.3374260116946116</v>
+      </c>
+      <c r="Q25">
+        <v>8.57206206423189</v>
+      </c>
+      <c r="R25">
+        <v>77.14855857808701</v>
+      </c>
+      <c r="S25">
+        <v>0.07349181364484911</v>
+      </c>
+      <c r="T25">
+        <v>0.07349181364484909</v>
       </c>
     </row>
   </sheetData>
